--- a/myapp/files/9_MethodComparePercent/Scenario 358.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 358.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2316</v>
+        <v>11816</v>
       </c>
       <c r="F2" t="n">
-        <v>1.74297841596677</v>
+        <v>2.16923164478648</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.89855072463768</v>
+        <v>2.24719101123596</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>5882</v>
+        <v>13268</v>
       </c>
       <c r="F3" t="n">
-        <v>4.426683524489</v>
+        <v>2.43579599382423</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>5.79710144927536</v>
+        <v>2.99625468164794</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>5275</v>
+        <v>21317</v>
       </c>
       <c r="F4" t="n">
-        <v>3.96986664258406</v>
+        <v>3.91346572206444</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>2.89855072463768</v>
+        <v>3.74531835205993</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>3376</v>
+        <v>25131</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5407146512538</v>
+        <v>4.61365609894457</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>4.34782608695652</v>
+        <v>4.49438202247191</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>3165</v>
+        <v>20479</v>
       </c>
       <c r="F6" t="n">
-        <v>2.38191998555044</v>
+        <v>3.75962211015423</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>4.34782608695652</v>
+        <v>3.74531835205993</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>884</v>
+        <v>8007</v>
       </c>
       <c r="F7" t="n">
-        <v>0.665281916975225</v>
+        <v>1.46995918921846</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.44927536231884</v>
+        <v>1.87265917602996</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>6983</v>
+        <v>14613</v>
       </c>
       <c r="F8" t="n">
-        <v>5.25527559529185</v>
+        <v>2.68271682678274</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -821,10 +821,10 @@
         <v>5.40540540540541</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>5.79710144927536</v>
+        <v>3.37078651685393</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>8565</v>
+        <v>32706</v>
       </c>
       <c r="F9" t="n">
-        <v>6.44585929739005</v>
+        <v>6.00430688679644</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -859,10 +859,10 @@
         <v>6.75675675675676</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5.79710144927536</v>
+        <v>5.61797752808989</v>
       </c>
       <c r="K9" t="n">
         <v>6</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>8853</v>
+        <v>38634</v>
       </c>
       <c r="F10" t="n">
-        <v>6.66260272735483</v>
+        <v>7.09259439443813</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>8.69565217391304</v>
+        <v>7.86516853932584</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>8522</v>
+        <v>28116</v>
       </c>
       <c r="F11" t="n">
-        <v>6.41349829916614</v>
+        <v>5.1616551222763</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>5.79710144927536</v>
+        <v>5.2434456928839</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>2905</v>
+        <v>12384</v>
       </c>
       <c r="F12" t="n">
-        <v>2.1862488334989</v>
+        <v>2.27350750584257</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>4.34782608695652</v>
+        <v>2.62172284644195</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>9902</v>
+        <v>30127</v>
       </c>
       <c r="F13" t="n">
-        <v>7.45206056774737</v>
+        <v>5.53084307400832</v>
       </c>
       <c r="G13" t="n">
         <v>7</v>
@@ -1011,16 +1011,16 @@
         <v>9.45945945945946</v>
       </c>
       <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.8689138576779</v>
+      </c>
+      <c r="K13" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="n">
-        <v>5.79710144927536</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
       <c r="L13" t="n">
-        <v>4.05405405405405</v>
+        <v>5.40540540540541</v>
       </c>
     </row>
     <row r="14">
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>16508</v>
+        <v>61288</v>
       </c>
       <c r="F14" t="n">
-        <v>12.4236129925645</v>
+        <v>11.2515122753617</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -1049,16 +1049,16 @@
         <v>13.5135135135135</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>8.69565217391304</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>16.2162162162162</v>
+        <v>14.8648648648649</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>18560</v>
+        <v>53620</v>
       </c>
       <c r="F15" t="n">
-        <v>13.9679099310635</v>
+        <v>9.84378815110454</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -1087,10 +1087,10 @@
         <v>13.5135135135135</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>10.1449275362319</v>
+        <v>8.98876404494382</v>
       </c>
       <c r="K15" t="n">
         <v>8</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>8202</v>
+        <v>20314</v>
       </c>
       <c r="F16" t="n">
-        <v>6.17267226587194</v>
+        <v>3.72933070685449</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>7.2463768115942</v>
+        <v>4.49438202247191</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2292</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.420775129472801</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.12359550561798</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>20949</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.84590671349289</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.37078651685393</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>1820</v>
+        <v>35573</v>
       </c>
       <c r="F19" t="n">
-        <v>1.36969806436076</v>
+        <v>6.53064296716228</v>
       </c>
       <c r="G19" t="n">
         <v>13</v>
@@ -1239,10 +1239,10 @@
         <v>17.5675675675676</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>1.44927536231884</v>
+        <v>6.74157303370787</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>2582</v>
+        <v>23576</v>
       </c>
       <c r="F20" t="n">
-        <v>1.94316505614257</v>
+        <v>4.32818257087729</v>
       </c>
       <c r="G20" t="n">
         <v>16</v>
@@ -1277,10 +1277,10 @@
         <v>21.6216216216216</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>4.34782608695652</v>
+        <v>5.2434456928839</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1980</v>
+        <v>8480</v>
       </c>
       <c r="F21" t="n">
-        <v>1.49011108100786</v>
+        <v>1.55679454534439</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.44927536231884</v>
+        <v>1.87265917602996</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2835</v>
+        <v>3798</v>
       </c>
       <c r="F22" t="n">
-        <v>2.1335681387158</v>
+        <v>0.697253028681369</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.44927536231884</v>
+        <v>1.12359550561798</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3645</v>
+        <v>14263</v>
       </c>
       <c r="F23" t="n">
-        <v>2.74315903549174</v>
+        <v>2.6184623349348</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.44927536231884</v>
+        <v>1.87265917602996</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>3726</v>
+        <v>20082</v>
       </c>
       <c r="F24" t="n">
-        <v>2.80411812516933</v>
+        <v>3.68673915797242</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.89855072463768</v>
+        <v>2.99625468164794</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>3645</v>
+        <v>13117</v>
       </c>
       <c r="F25" t="n">
-        <v>2.74315903549174</v>
+        <v>2.4080747701984</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.44927536231884</v>
+        <v>1.87265917602996</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>2745</v>
+        <v>10759</v>
       </c>
       <c r="F26" t="n">
-        <v>2.0658358168518</v>
+        <v>1.9751830794057</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.44927536231884</v>
+        <v>1.49812734082397</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
